--- a/data/centers_lkup.xlsx
+++ b/data/centers_lkup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLam\github\centers-reports\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA12016-0F80-4216-801E-F401AF5C3EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A15F4E-32E8-4BD2-B9F2-08BDA30B2063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>center_type</t>
   </si>
@@ -158,6 +158,21 @@
   </si>
   <si>
     <t>Redmond-Overlake</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>Kent MIC</t>
+  </si>
+  <si>
+    <t>Paine Field / Boeing Everett</t>
+  </si>
+  <si>
+    <t>Puget Sound Industrial Center- Bremerton</t>
+  </si>
+  <si>
+    <t>Sumner Pacific</t>
   </si>
 </sst>
 </file>
@@ -494,7 +509,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +872,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -890,10 +905,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -912,7 +927,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -934,7 +949,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -945,7 +960,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
